--- a/result/NCDC_weather_data/stations_imputed/57297099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57297099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.109204</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>7.637135438297872</v>
+      </c>
       <c r="O2" t="n">
         <v>139.1</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.03828374468085106</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.903428</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>7.637135438297872</v>
+      </c>
       <c r="O3" t="n">
         <v>139.1</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.03828374468085106</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>7.637135438297872</v>
+      </c>
       <c r="O4" t="n">
         <v>132.62</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.03828374468085106</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
